--- a/biology/Médecine/Philippe_Druelle/Philippe_Druelle.xlsx
+++ b/biology/Médecine/Philippe_Druelle/Philippe_Druelle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Philippe Druelle, né le 11 juillet 1949 à Tours en Indre-et-Loire est un ostéopathe français. 
 </t>
@@ -511,13 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a grandi en Normandie à Granville et à Saint-Lô dans la Manche. Son père était ingénieur et directeur de l’agriculture en Seine-Marne nord et sa mère institutrice. En 1981, Philippe Druelle, D.O. fonde la première école d’ostéopathie au Canada, le Collège d'Études Ostéopathiques de Montréal (CEO).
-Formation
-Philippe Druelle a fait ses études à l'Institut libre d'Agneaux chez les Oratoriens et a reçu, en 1968, son diplôme de Baccalauréat en Sciences avec mention à Saint Lô Académie de Caen (France). Il a étudié à l’École de Liège à Paris en Kinésithérapie et a obtenu son diplôme en 1973 avant de découvrir l’Ostéopathie. Philippe Druelle reçoit son diplôme d’Ostéopathie au Collège d’Ostéopathie M.T.A. à Paris en 1979. Il a continué son éducation et a obtenu un Certificat d’Ostéopathie crânienne au Collège d’Ostéopathie ATMAN à Paris en 1980. Toujours intéressé par les médecines naturelles, Il a obtenu un diplôme de médecine traditionnelle chinoise et acupuncture à la CEMAC à Paris, en 1981. Il a fini son Cycle complet d’études en Homéopathie avec le Docteur Dominique Senn à Lausanne,Suisse en 1982. Philippe Druelle présenta un mémoire sur « L'atlas et l'occlusion » en 1984, et a reçu son diplôme national d’Ostéopathie au collège d’Ostéopathie ATMAN.
-Expérience Professionnelle
-Philippe Druelle a travaillé comme kinésithérapeute de 1974 à 1976 à la Clinique de réadaptation fonctionnelle Ponthieu-Champs Élysées à Paris. Il fonde la Clinique de thérapie manuelle des Champs Élysées à Paris en 1976 et y travaille jusqu'en 1979. C’est aussi en 1979 qu’il commencera à travailler en tant qu’ostéopathe dans sa clinique. En 1995 il travaille en tant qu'ostéopathe à la Maison de l’ostéopathie à Montréal, au Canada, qu'il avait fondé en 1984. 	 
 </t>
         </is>
       </c>
@@ -543,10 +553,86 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Formation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philippe Druelle a fait ses études à l'Institut libre d'Agneaux chez les Oratoriens et a reçu, en 1968, son diplôme de Baccalauréat en Sciences avec mention à Saint Lô Académie de Caen (France). Il a étudié à l’École de Liège à Paris en Kinésithérapie et a obtenu son diplôme en 1973 avant de découvrir l’Ostéopathie. Philippe Druelle reçoit son diplôme d’Ostéopathie au Collège d’Ostéopathie M.T.A. à Paris en 1979. Il a continué son éducation et a obtenu un Certificat d’Ostéopathie crânienne au Collège d’Ostéopathie ATMAN à Paris en 1980. Toujours intéressé par les médecines naturelles, Il a obtenu un diplôme de médecine traditionnelle chinoise et acupuncture à la CEMAC à Paris, en 1981. Il a fini son Cycle complet d’études en Homéopathie avec le Docteur Dominique Senn à Lausanne,Suisse en 1982. Philippe Druelle présenta un mémoire sur « L'atlas et l'occlusion » en 1984, et a reçu son diplôme national d’Ostéopathie au collège d’Ostéopathie ATMAN.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Philippe_Druelle</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Philippe_Druelle</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Expérience Professionnelle</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philippe Druelle a travaillé comme kinésithérapeute de 1974 à 1976 à la Clinique de réadaptation fonctionnelle Ponthieu-Champs Élysées à Paris. Il fonde la Clinique de thérapie manuelle des Champs Élysées à Paris en 1976 et y travaille jusqu'en 1979. C’est aussi en 1979 qu’il commencera à travailler en tant qu’ostéopathe dans sa clinique. En 1995 il travaille en tant qu'ostéopathe à la Maison de l’ostéopathie à Montréal, au Canada, qu'il avait fondé en 1984. 	 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Philippe_Druelle</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Philippe_Druelle</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Enseignement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Philippe Druelle D.O. est professeur invité à l'international depuis 1980. (Canada, France, États-Unis, Allemagne, Argentine, Hollande, Belgique, Russie, Italie, Angleterre, Espagne et Japon)
 Il est aussi membre de jurys de thèse et président/président d'honneur de jurys. (Canada, Allemagne, Belgique, France, Suisse)
@@ -569,35 +655,72 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Philippe_Druelle</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Philippe_Druelle</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Philippe_Druelle</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Philippe_Druelle</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Réalisations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Philippe Druelle est le fondateur ou cofondateur de plusieurs écoles d’ostéopathie à travers le monde. 
-Fondateur
-Les collèges :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philippe Druelle est le fondateur ou cofondateur de plusieurs écoles d’ostéopathie à travers le monde. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Philippe_Druelle</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Philippe_Druelle</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Réalisations</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Fondateur</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les collèges :
 Le Collège d'Études Ostéopathiques de Montréal. 1981 CEO (Canada)
 Le Deutsches Osteopathie Kolleg. 1991 DOK (Allemagne)
 Le Canadien College of Osteopathy à Toronto. 1992 CCO (Canada)
@@ -605,51 +728,159 @@
 Le Swiss International College of Osteopathy. 2002 SICO (Switzerland)
 Le Collège d’études ostéopathiques. 2002 CEO (Halifax)
 Après la fondation du Collège de Montréal, Philippe Druelle crée en 1983 "la Fondation Canadienne pour l'Enseignement et la Recherche en Ostéopathie" (FCERO) pour le traitement de jeunes enfants handicapés. Il met sur pied la formation continue du CEO de Montréal en 1988. En 2002, il obtient la validation du programme à Temps Plein en ostéopathie par l’Université de Wales (Grande-Bretagne)qui décerne un B.Sc. (Hons) en Ostéopathie.
-Cofondateur
-Les collèges :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Philippe_Druelle</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Philippe_Druelle</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Réalisations</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Cofondateur</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Les collèges :
 Le Collège Ostéopathiques Harold Magoun. 1985 (Paris)
 Le Collège d'Études Ostéopathiques de Québec. 1996 (Canada)
 Philippe Druelle est le cofondateur du Registre des Ostéopathes du Québec (1984) et le "Register der Osteopathen in Deutschland" (ROD) entre 1996 et 1997.
 Organisateur, concepteur de 53 programmes des symposiums de Montréal, Toronto et d'Allemagne, (1986 à ce jour)
 Instigateur et organisateur de missions humanitaires à Arequipa au Pérou  (2003 à ce jour)  et au Pakistan (2007 à ce jour)
-Cofondateur de Osteopath Without Borders (OWB), New York – 2008
-Le Don des Étoiles
-Philippe Druelle est le concepteur et organisateur du Spectacle "Le Don des Étoiles" qui a eu lieu à la Place des Arts (Montréal) de 1986 à 1991 pour la FCERO. Ce spectacle était à but non lucratif. Son nom provient du fait que plusieurs étoiles de ballet y ont dansé. 
+Cofondateur de Osteopath Without Borders (OWB), New York – 2008</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Philippe_Druelle</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Philippe_Druelle</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Réalisations</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Le Don des Étoiles</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Philippe Druelle est le concepteur et organisateur du Spectacle "Le Don des Étoiles" qui a eu lieu à la Place des Arts (Montréal) de 1986 à 1991 pour la FCERO. Ce spectacle était à but non lucratif. Son nom provient du fait que plusieurs étoiles de ballet y ont dansé. 
 25e anniversaire de la Place des Arts (Montréal) - soirée-bénéfice avec le concours de plusieurs étoiles de la danse – membres des Bolchoï, Opéra de Paris, Grands Ballets Canadiens, Kirov, New York City Ballet, American Ballet Theatre etc.,</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Philippe_Druelle</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Philippe_Druelle</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Philippe_Druelle</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Philippe_Druelle</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Publications et Conférences</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Publications
-1981 à 1987, auteur de vingt-cinq ouvrages didactiques en lien avec le programme d’études en Ostéopathie.
-1985 Le Dépistage précoce des anomalies neuromatrices du nourrisson, article publié dans le cahier de néonatalogie française.
-Conférences
-Depuis 1986, en France, aux États-Unis, en Angleterre, au Japon, en Russie et en Argentine ainsi qu’aux symposiums de Montréal, Toronto et Munich.
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>1981 à 1987, auteur de vingt-cinq ouvrages didactiques en lien avec le programme d’études en Ostéopathie.
+1985 Le Dépistage précoce des anomalies neuromatrices du nourrisson, article publié dans le cahier de néonatalogie française.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Philippe_Druelle</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Philippe_Druelle</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Publications et Conférences</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Conférences</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Depuis 1986, en France, aux États-Unis, en Angleterre, au Japon, en Russie et en Argentine ainsi qu’aux symposiums de Montréal, Toronto et Munich.
 1987, "La Formation" conférence donnée devant le Forum des Médecins Santé.
 1999, Conférence sur la formation, la situation présente et l'évolution de l'Ostéopathie au Canada, présentée à l’International Affairs Committee, American Academy of Osteopathy, St- Louis, Missouri.
 1999, Les Origines et les Racines de l’Ostéopathie  (Le Dialogue avec la Vie), présentée au 16e Symposium International de Montréal.
@@ -668,31 +899,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Philippe_Druelle</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Philippe_Druelle</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Philippe_Druelle</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Philippe_Druelle</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Honneurs</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">1965 : Lauréat du Prix du Lions’ Club – Concours régional sur les moyens d’obtenir la paix dans le monde
 1985 :	Diplôme Honoris causa en Ostéopathie, Belgique
